--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2533.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2533.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.606760273697365</v>
+        <v>1.89490282535553</v>
       </c>
       <c r="B1">
-        <v>3.694856067655505</v>
+        <v>2.08281421661377</v>
       </c>
       <c r="C1">
-        <v>2.994743433166092</v>
+        <v>2.458517074584961</v>
       </c>
       <c r="D1">
-        <v>1.478937915128821</v>
+        <v>3.072900295257568</v>
       </c>
       <c r="E1">
-        <v>1.415217748700163</v>
+        <v>2.386813879013062</v>
       </c>
     </row>
   </sheetData>
